--- a/notebooks/simulation/sim_results/summary_success_rate_000_test.xlsx
+++ b/notebooks/simulation/sim_results/summary_success_rate_000_test.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X10"/>
+  <dimension ref="A1:X12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -568,64 +568,64 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.375</v>
+        <v>0.75</v>
       </c>
       <c r="F2" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
         <v>0.5</v>
       </c>
-      <c r="H2" t="n">
-        <v>0.4090909090909091</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.25</v>
-      </c>
       <c r="K2" t="n">
-        <v>0.4090909090909091</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L2" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4387755102040816</v>
+        <v>0.8775510204081632</v>
       </c>
       <c r="P2" t="n">
-        <v>0.4360655737704918</v>
+        <v>0.869281045751634</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="R2" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="S2" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
         <v>0.3333333333333333</v>
       </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.1666666666666667</v>
-      </c>
       <c r="V2" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="W2" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="X2" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -646,64 +646,64 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>0.25</v>
       </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.125</v>
-      </c>
       <c r="H3" t="n">
-        <v>0.4090909090909091</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L3" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.8163265306122449</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.8300653594771242</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="R3" t="n">
         <v>0.4</v>
       </c>
-      <c r="M3" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.4333333333333333</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0.4081632653061225</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.4163934426229508</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.3888888888888889</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0.2</v>
-      </c>
       <c r="S3" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="V3" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="W3" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="X3" t="n">
-        <v>0.375</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="4">
@@ -724,64 +724,64 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="F4" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G4" t="n">
-        <v>0.375</v>
+        <v>0.75</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="J4" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4090909090909091</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="O4" t="n">
-        <v>0.3877551020408163</v>
+        <v>0.7755102040816326</v>
       </c>
       <c r="P4" t="n">
-        <v>0.4065573770491803</v>
+        <v>0.8104575163398693</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.3888888888888889</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="R4" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="S4" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
         <v>0.3333333333333333</v>
       </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0.1666666666666667</v>
-      </c>
       <c r="V4" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="W4" t="n">
-        <v>0.3571428571428572</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="X4" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -790,73 +790,73 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>flowbot</t>
+          <t>hisditonly</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>sgp</t>
+          <t>raw</t>
         </is>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.375</v>
+        <v>0.25</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="J5" t="n">
         <v>0.5</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L5" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.8775510204081632</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.7973856209150327</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="R5" t="n">
         <v>0.4</v>
       </c>
-      <c r="M5" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.4795918367346938</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.4590163934426228</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.4444444444444444</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0.5</v>
-      </c>
       <c r="S5" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
         <v>0.3333333333333333</v>
       </c>
-      <c r="T5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0.1666666666666667</v>
-      </c>
       <c r="V5" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="W5" t="n">
-        <v>0.5</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="X5" t="n">
         <v>0.5</v>
@@ -868,7 +868,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>dit</t>
+          <t>flowbot</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -880,64 +880,64 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L6" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="M6" t="n">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="N6" t="n">
-        <v>0.4666666666666666</v>
+        <v>1</v>
       </c>
       <c r="O6" t="n">
-        <v>0.4591836734693878</v>
+        <v>0.9591836734693876</v>
       </c>
       <c r="P6" t="n">
-        <v>0.4360655737704918</v>
+        <v>0.9150326797385619</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.3888888888888889</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="R6" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U6" t="n">
         <v>0.3333333333333333</v>
       </c>
       <c r="V6" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="W6" t="n">
-        <v>0.3571428571428572</v>
+        <v>1</v>
       </c>
       <c r="X6" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -946,7 +946,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pndit</t>
+          <t>dit</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -958,64 +958,64 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3636363636363636</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>0.4545454545454545</v>
+        <v>1</v>
       </c>
       <c r="L7" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="M7" t="n">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="N7" t="n">
-        <v>0.3</v>
+        <v>0.9333333333333332</v>
       </c>
       <c r="O7" t="n">
-        <v>0.4591836734693878</v>
+        <v>0.9183673469387755</v>
       </c>
       <c r="P7" t="n">
-        <v>0.4426229508196721</v>
+        <v>0.869281045751634</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="R7" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="V7" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="W7" t="n">
-        <v>0.5</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="X7" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -1024,7 +1024,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>hisdit</t>
+          <t>pndit</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1036,49 +1036,49 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="F8" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.375</v>
+        <v>0.75</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="M8" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="N8" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="O8" t="n">
-        <v>0.4591836734693878</v>
+        <v>0.9183673469387756</v>
       </c>
       <c r="P8" t="n">
-        <v>0.4786885245901639</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.3888888888888889</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="R8" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="S8" t="n">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1087,13 +1087,13 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="V8" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="W8" t="n">
-        <v>0.4285714285714285</v>
+        <v>1</v>
       </c>
       <c r="X8" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1102,7 +1102,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pnhisdit</t>
+          <t>hisdit</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1120,10 +1120,10 @@
         <v>0.5</v>
       </c>
       <c r="G9" t="n">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8181818181818182</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
@@ -1132,10 +1132,10 @@
         <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9545454545454546</v>
+        <v>1</v>
       </c>
       <c r="L9" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
@@ -1144,16 +1144,16 @@
         <v>1</v>
       </c>
       <c r="O9" t="n">
-        <v>0.9489795918367349</v>
+        <v>0.9183673469387756</v>
       </c>
       <c r="P9" t="n">
-        <v>0.9639344262295082</v>
+        <v>0.9542483660130719</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="R9" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="S9" t="n">
         <v>1</v>
@@ -1178,68 +1178,224 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>pnhisdit</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>sgp</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
       <c r="E10" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.7272727272727273</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.9795918367346941</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.9673202614379085</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>hisditonly</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>sgp</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.9183673469387756</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.8823529411764706</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>4</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" t="n">
+        <v>4</v>
+      </c>
+      <c r="H12" t="n">
+        <v>11</v>
+      </c>
+      <c r="I12" t="n">
+        <v>5</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2</v>
+      </c>
+      <c r="K12" t="n">
+        <v>11</v>
+      </c>
+      <c r="L12" t="n">
+        <v>5</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="n">
+        <v>15</v>
+      </c>
+      <c r="O12" t="n">
+        <v>49</v>
+      </c>
+      <c r="P12" t="n">
+        <v>153</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>9</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>3</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1</v>
+      </c>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
+      <c r="V12" t="n">
         <v>8</v>
       </c>
-      <c r="F10" t="n">
+      <c r="W12" t="n">
+        <v>7</v>
+      </c>
+      <c r="X12" t="n">
         <v>4</v>
-      </c>
-      <c r="G10" t="n">
-        <v>8</v>
-      </c>
-      <c r="H10" t="n">
-        <v>22</v>
-      </c>
-      <c r="I10" t="n">
-        <v>10</v>
-      </c>
-      <c r="J10" t="n">
-        <v>4</v>
-      </c>
-      <c r="K10" t="n">
-        <v>22</v>
-      </c>
-      <c r="L10" t="n">
-        <v>10</v>
-      </c>
-      <c r="M10" t="n">
-        <v>4</v>
-      </c>
-      <c r="N10" t="n">
-        <v>30</v>
-      </c>
-      <c r="O10" t="n">
-        <v>98</v>
-      </c>
-      <c r="P10" t="n">
-        <v>305</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>18</v>
-      </c>
-      <c r="R10" t="n">
-        <v>10</v>
-      </c>
-      <c r="S10" t="n">
-        <v>6</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2</v>
-      </c>
-      <c r="U10" t="n">
-        <v>6</v>
-      </c>
-      <c r="V10" t="n">
-        <v>16</v>
-      </c>
-      <c r="W10" t="n">
-        <v>14</v>
-      </c>
-      <c r="X10" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/notebooks/simulation/sim_results/summary_success_rate_000_test.xlsx
+++ b/notebooks/simulation/sim_results/summary_success_rate_000_test.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X16"/>
+  <dimension ref="A1:X22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -946,34 +946,34 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>flowbot</t>
+          <t>flowbotallopen</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>sgp</t>
+          <t>raw</t>
         </is>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K7" t="n">
         <v>0.9090909090909091</v>
@@ -982,28 +982,28 @@
         <v>0.8</v>
       </c>
       <c r="M7" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="O7" t="n">
-        <v>0.9591836734693876</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="P7" t="n">
-        <v>0.9150326797385619</v>
+        <v>0.7516339869281046</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="R7" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="S7" t="n">
         <v>0.6666666666666666</v>
       </c>
       <c r="T7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0.3333333333333333</v>
@@ -1012,10 +1012,10 @@
         <v>1</v>
       </c>
       <c r="W7" t="n">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="X7" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="8">
@@ -1024,7 +1024,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>dit</t>
+          <t>flowbot</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1036,13 +1036,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
@@ -1054,7 +1054,7 @@
         <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>1</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L8" t="n">
         <v>0.8</v>
@@ -1063,34 +1063,34 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="N8" t="n">
-        <v>0.9333333333333332</v>
+        <v>1</v>
       </c>
       <c r="O8" t="n">
-        <v>0.9183673469387755</v>
+        <v>0.9591836734693876</v>
       </c>
       <c r="P8" t="n">
-        <v>0.869281045751634</v>
+        <v>0.9150326797385619</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="R8" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="S8" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="V8" t="n">
         <v>1</v>
       </c>
       <c r="W8" t="n">
-        <v>0.7142857142857143</v>
+        <v>1</v>
       </c>
       <c r="X8" t="n">
         <v>1</v>
@@ -1102,7 +1102,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pndit</t>
+          <t>dit</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1120,10 +1120,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7272727272727273</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
@@ -1132,43 +1132,43 @@
         <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9090909090909091</v>
+        <v>1</v>
       </c>
       <c r="L9" t="n">
         <v>0.8</v>
       </c>
       <c r="M9" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.9333333333333332</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.9183673469387755</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.869281045751634</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="N9" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0.9183673469387756</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0.8823529411764706</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="V9" t="n">
         <v>1</v>
       </c>
       <c r="W9" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="X9" t="n">
         <v>1</v>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>hisdit</t>
+          <t>pndit</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1192,61 +1192,61 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0.75</v>
       </c>
       <c r="H10" t="n">
+        <v>0.7272727272727273</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
         <v>0.9090909090909091</v>
       </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" t="n">
-        <v>1</v>
-      </c>
       <c r="L10" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="N10" t="n">
         <v>0.6</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="n">
-        <v>1</v>
       </c>
       <c r="O10" t="n">
         <v>0.9183673469387756</v>
       </c>
       <c r="P10" t="n">
-        <v>0.9542483660130719</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="R10" t="n">
         <v>0.8</v>
       </c>
       <c r="S10" t="n">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="V10" t="n">
         <v>1</v>
       </c>
       <c r="W10" t="n">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="X10" t="n">
         <v>1</v>
@@ -1258,7 +1258,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pnhisdit</t>
+          <t>hisdit</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1276,10 +1276,10 @@
         <v>0.5</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="H11" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
@@ -1288,28 +1288,28 @@
         <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>0.9090909090909091</v>
+        <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="M11" t="n">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="N11" t="n">
         <v>1</v>
       </c>
       <c r="O11" t="n">
-        <v>0.9795918367346941</v>
+        <v>0.9183673469387756</v>
       </c>
       <c r="P11" t="n">
-        <v>0.9673202614379085</v>
+        <v>0.9542483660130719</v>
       </c>
       <c r="Q11" t="n">
-        <v>1</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="R11" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="S11" t="n">
         <v>1</v>
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>hisditonly</t>
+          <t>pnhisdit</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1351,13 +1351,13 @@
         <v>0.75</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G12" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
@@ -1366,46 +1366,46 @@
         <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L12" t="n">
         <v>0.8</v>
       </c>
       <c r="M12" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.9795918367346941</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.9673202614379085</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="N12" t="n">
-        <v>0.7333333333333333</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0.9183673469387756</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0.8823529411764706</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="V12" t="n">
         <v>1</v>
       </c>
       <c r="W12" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="X12" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -1414,7 +1414,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>hisonly</t>
+          <t>hisditonly</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1441,16 +1441,16 @@
         <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K13" t="n">
-        <v>0.9090909090909091</v>
+        <v>1</v>
       </c>
       <c r="L13" t="n">
         <v>0.8</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="N13" t="n">
         <v>0.7333333333333333</v>
@@ -1459,16 +1459,16 @@
         <v>0.9183673469387756</v>
       </c>
       <c r="P13" t="n">
-        <v>0.8431372549019608</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="R13" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="S13" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1477,13 +1477,13 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="V13" t="n">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="W13" t="n">
         <v>0.5714285714285714</v>
       </c>
       <c r="X13" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="14">
@@ -1492,7 +1492,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>hispndit01only1</t>
+          <t>hisonly</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1504,25 +1504,25 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F14" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="H14" t="n">
-        <v>0.8181818181818182</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L14" t="n">
         <v>0.8</v>
@@ -1531,19 +1531,19 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="O14" t="n">
-        <v>0.6326530612244898</v>
+        <v>0.9183673469387756</v>
       </c>
       <c r="P14" t="n">
-        <v>0.8366013071895425</v>
+        <v>0.8431372549019608</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="R14" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="S14" t="n">
         <v>0.6666666666666666</v>
@@ -1555,13 +1555,13 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="V14" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="W14" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="X14" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="15">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>hispndit01only2</t>
+          <t>pndit&amp;pn++</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1582,16 +1582,16 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="F15" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="I15" t="n">
         <v>1</v>
@@ -1606,22 +1606,22 @@
         <v>0.8</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="N15" t="n">
-        <v>0.8666666666666667</v>
+        <v>1</v>
       </c>
       <c r="O15" t="n">
-        <v>0.8367346938775511</v>
+        <v>0.9387755102040817</v>
       </c>
       <c r="P15" t="n">
-        <v>0.9019607843137255</v>
+        <v>0.9346405228758168</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.7777777777777778</v>
+        <v>1</v>
       </c>
       <c r="R15" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="S15" t="n">
         <v>1</v>
@@ -1630,7 +1630,7 @@
         <v>1</v>
       </c>
       <c r="U15" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="V15" t="n">
         <v>1</v>
@@ -1639,74 +1639,542 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="X15" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>dit&amp;pn++</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>sgp</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
       <c r="E16" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.9183673469387756</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.9281045751633988</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="X16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>largedit&amp;pn++</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>sgp</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.9333333333333332</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.8163265306122449</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.9477124183006536</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="X17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>flowbotallopen</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>sgp</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.9387755102040817</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.8823529411764706</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>pndit&amp;pn++allopen&gt;005</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>sgp</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.9183673469387756</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.9738562091503268</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="X19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>dit&amp;pn++allopen&gt;01</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>sgp</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.9215686274509803</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>hispnditckpt299</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>sgp</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.9591836734693876</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.9477124183006538</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="X21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="n">
         <v>4</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F22" t="n">
         <v>2</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G22" t="n">
         <v>4</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H22" t="n">
         <v>11</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I22" t="n">
         <v>5</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J22" t="n">
         <v>2</v>
       </c>
-      <c r="K16" t="n">
+      <c r="K22" t="n">
         <v>11</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L22" t="n">
         <v>5</v>
       </c>
-      <c r="M16" t="n">
+      <c r="M22" t="n">
         <v>3</v>
       </c>
-      <c r="N16" t="n">
+      <c r="N22" t="n">
         <v>15</v>
       </c>
-      <c r="O16" t="n">
+      <c r="O22" t="n">
         <v>49</v>
       </c>
-      <c r="P16" t="n">
+      <c r="P22" t="n">
         <v>153</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="Q22" t="n">
         <v>9</v>
       </c>
-      <c r="R16" t="n">
+      <c r="R22" t="n">
         <v>5</v>
       </c>
-      <c r="S16" t="n">
+      <c r="S22" t="n">
         <v>3</v>
       </c>
-      <c r="T16" t="n">
-        <v>1</v>
-      </c>
-      <c r="U16" t="n">
+      <c r="T22" t="n">
+        <v>1</v>
+      </c>
+      <c r="U22" t="n">
         <v>3</v>
       </c>
-      <c r="V16" t="n">
+      <c r="V22" t="n">
         <v>8</v>
       </c>
-      <c r="W16" t="n">
+      <c r="W22" t="n">
         <v>7</v>
       </c>
-      <c r="X16" t="n">
+      <c r="X22" t="n">
         <v>4</v>
       </c>
     </row>

--- a/notebooks/simulation/sim_results/summary_success_rate_000_test.xlsx
+++ b/notebooks/simulation/sim_results/summary_success_rate_000_test.xlsx
@@ -2038,7 +2038,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>hispnditckpt299</t>
+          <t>hispnditFilter</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F21" t="n">
         <v>0.5</v>
       </c>
       <c r="G21" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
         <v>1</v>
@@ -2065,34 +2065,34 @@
         <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K21" t="n">
-        <v>0.9090909090909091</v>
+        <v>1</v>
       </c>
       <c r="L21" t="n">
         <v>0.8</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="N21" t="n">
         <v>1</v>
       </c>
       <c r="O21" t="n">
-        <v>0.9591836734693876</v>
+        <v>0.9795918367346941</v>
       </c>
       <c r="P21" t="n">
-        <v>0.9477124183006538</v>
+        <v>0.9869281045751634</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="R21" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="S21" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="T21" t="n">
         <v>1</v>

--- a/notebooks/simulation/sim_results/summary_success_rate_000_test.xlsx
+++ b/notebooks/simulation/sim_results/summary_success_rate_000_test.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X9"/>
+  <dimension ref="A1:X15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -592,7 +592,7 @@
         <v>0.76</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.1379310344827586</v>
       </c>
       <c r="N2" t="n">
         <v>0.72</v>
@@ -670,7 +670,7 @@
         <v>0.72</v>
       </c>
       <c r="M3" t="n">
-        <v>0.5</v>
+        <v>0.2068965517241379</v>
       </c>
       <c r="N3" t="n">
         <v>0.5866666666666667</v>
@@ -727,52 +727,52 @@
         <v>0.7</v>
       </c>
       <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.8363636363636363</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="J4" t="n">
         <v>0.6</v>
       </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.8545454545454545</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.5</v>
-      </c>
       <c r="K4" t="n">
-        <v>0.8727272727272727</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L4" t="n">
-        <v>0.68</v>
+        <v>0.72</v>
       </c>
       <c r="M4" t="n">
-        <v>0.25</v>
+        <v>0.1379310344827586</v>
       </c>
       <c r="N4" t="n">
-        <v>0.68</v>
+        <v>0.5866666666666667</v>
       </c>
       <c r="O4" t="n">
-        <v>0.8285714285714286</v>
+        <v>0.7959183673469388</v>
       </c>
       <c r="P4" t="n">
-        <v>0.9045751633986928</v>
+        <v>0.8562091503267973</v>
       </c>
       <c r="Q4" t="n">
         <v>0.7555555555555555</v>
       </c>
       <c r="R4" t="n">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="S4" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.9333333333333332</v>
       </c>
       <c r="T4" t="n">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="U4" t="n">
-        <v>0.2</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V4" t="n">
         <v>1</v>
@@ -781,7 +781,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="X4" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="5">
@@ -826,7 +826,7 @@
         <v>0.8</v>
       </c>
       <c r="M5" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.1379310344827586</v>
       </c>
       <c r="N5" t="n">
         <v>0.9866666666666668</v>
@@ -904,7 +904,7 @@
         <v>0.8</v>
       </c>
       <c r="M6" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.2413793103448276</v>
       </c>
       <c r="N6" t="n">
         <v>0.88</v>
@@ -958,55 +958,55 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.75</v>
+        <v>0.35</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="G7" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9818181818181818</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="J7" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="K7" t="n">
-        <v>0.9636363636363636</v>
+        <v>0.8909090909090909</v>
       </c>
       <c r="L7" t="n">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="M7" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.1379310344827586</v>
       </c>
       <c r="N7" t="n">
         <v>0.9866666666666668</v>
       </c>
       <c r="O7" t="n">
-        <v>0.9755102040816328</v>
+        <v>0.8489795918367347</v>
       </c>
       <c r="P7" t="n">
-        <v>0.9803921568627451</v>
+        <v>0.9176470588235294</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.7333333333333333</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="R7" t="n">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="S7" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="T7" t="n">
         <v>1</v>
       </c>
       <c r="U7" t="n">
-        <v>0.2333333333333333</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="V7" t="n">
         <v>1</v>
@@ -1015,7 +1015,7 @@
         <v>0.8285714285714286</v>
       </c>
       <c r="X7" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="8">
@@ -1036,55 +1036,55 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G8" t="n">
         <v>0.85</v>
       </c>
-      <c r="F8" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1</v>
-      </c>
       <c r="H8" t="n">
-        <v>0.9454545454545454</v>
+        <v>0.9272727272727272</v>
       </c>
       <c r="I8" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
         <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9454545454545454</v>
+        <v>0.7636363636363637</v>
       </c>
       <c r="L8" t="n">
         <v>0.8</v>
       </c>
       <c r="M8" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.103448275862069</v>
       </c>
       <c r="N8" t="n">
-        <v>0.88</v>
+        <v>0.6933333333333334</v>
       </c>
       <c r="O8" t="n">
         <v>0.9102040816326531</v>
       </c>
       <c r="P8" t="n">
-        <v>0.9477124183006536</v>
+        <v>0.9032679738562092</v>
       </c>
       <c r="Q8" t="n">
         <v>0.8888888888888888</v>
       </c>
       <c r="R8" t="n">
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
       <c r="S8" t="n">
-        <v>0.9333333333333333</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="T8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="V8" t="n">
         <v>1</v>
@@ -1093,74 +1093,542 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="X8" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>his</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>sgp</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
       <c r="E9" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.8909090909090909</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.8545454545454545</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.2758620689655172</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.8163265306122449</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.7045751633986929</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.5777777777777777</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>hispnditFilrepeat5</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>sgp+cc</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.9636363636363636</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.3103448275862069</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.9733333333333334</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.9387755102040816</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.9594771241830066</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.6444444444444445</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.9714285714285714</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>pnditrepeat5</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>sgp+cc</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.9454545454545454</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.7272727272727273</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.03448275862068964</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.9428571428571428</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.90718954248366</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.8444444444444444</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>hispnditFilrepeat5</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>sgp+cc+hf</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.9818181818181818</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.9636363636363636</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.2758620689655172</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.9733333333333334</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.9591836734693876</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.9673202614379084</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.6444444444444445</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.9714285714285714</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>hispnditFilrepeat5</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>sgp+hf</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.9636363636363636</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.1724137931034482</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.9866666666666668</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.9510204081632652</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.9477124183006536</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.6444444444444445</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.4333333333333333</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>his</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>sgp+hf</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.8909090909090909</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.9655172413793104</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.7215686274509804</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.5777777777777777</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="X14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="n">
         <v>20</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F15" t="n">
         <v>10</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G15" t="n">
         <v>20</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H15" t="n">
         <v>55</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I15" t="n">
         <v>25</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J15" t="n">
         <v>10</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K15" t="n">
         <v>55</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L15" t="n">
         <v>25</v>
       </c>
-      <c r="M9" t="n">
-        <v>12</v>
-      </c>
-      <c r="N9" t="n">
+      <c r="M15" t="n">
+        <v>29</v>
+      </c>
+      <c r="N15" t="n">
         <v>75</v>
       </c>
-      <c r="O9" t="n">
+      <c r="O15" t="n">
         <v>245</v>
       </c>
-      <c r="P9" t="n">
+      <c r="P15" t="n">
         <v>765</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q15" t="n">
         <v>45</v>
       </c>
-      <c r="R9" t="n">
+      <c r="R15" t="n">
         <v>25</v>
       </c>
-      <c r="S9" t="n">
+      <c r="S15" t="n">
         <v>15</v>
       </c>
-      <c r="T9" t="n">
+      <c r="T15" t="n">
         <v>5</v>
       </c>
-      <c r="U9" t="n">
+      <c r="U15" t="n">
         <v>30</v>
       </c>
-      <c r="V9" t="n">
+      <c r="V15" t="n">
         <v>40</v>
       </c>
-      <c r="W9" t="n">
+      <c r="W15" t="n">
         <v>35</v>
       </c>
-      <c r="X9" t="n">
+      <c r="X15" t="n">
         <v>20</v>
       </c>
     </row>
